--- a/data/trans_bre/P42_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P42_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,51</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,1</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,86</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>62,78%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>85,11%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>-21,7%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,27 +694,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,71; 34,03</t>
+          <t>-8,14; 9,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 22,25</t>
+          <t>-9,42; 6,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,86</t>
+          <t>0,0; 11,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,51</t>
+          <t>0,0; 10,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-59,69; 666,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -702,6 +728,16 @@
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>21,61%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,16%</t>
+          <t>-20,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-41,19%</t>
+          <t>-39,47%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-27,54%</t>
+          <t>-78,97%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-44,93%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 15,42</t>
+          <t>-7,07; 3,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 10,69</t>
+          <t>-7,28; 1,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 2,1</t>
+          <t>-4,84; 0,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 3,72</t>
+          <t>-3,49; 1,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,89; 126,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-37,96; 197,78</t>
+          <t>-62,41; 82,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 150,76</t>
+          <t>-77,81; 65,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-95,8; 236,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,17</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>2,29</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,68</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,1</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,03%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>119,69%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>90,09%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,40 +934,50 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 10,19</t>
+          <t>-5,29; 7,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 9,93</t>
+          <t>-2,05; 7,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 8,04</t>
+          <t>0,57; 5,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 8,13</t>
+          <t>0,59; 5,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-38,05; 182,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-50,62; 1071,09</t>
+          <t>-56,86; 222,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,55; 1244,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -910,7 +986,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>49,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>89,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>67,21%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 8,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 7,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 4,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 4,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,03; 76,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,83; 165,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-33,59; 501,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-57,87; 388,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,49</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-4,06%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-10,68%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>46,86%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>85,64%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-3,96; 4,03</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,38; 2,97</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,07; 2,11</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 2,58</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-43,86; 87,32</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-57,52; 115,13</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-52,21; 741,65</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P42_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P42_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,195 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,9</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,96</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,49</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,04</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>18,99%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-21,7%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>2.501793819131231</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.618750681478287</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>10.86014879235832</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>11.48825029092375</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.1207630806686516</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1540073424099198</v>
+      </c>
+      <c r="J4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-8,14; 9,66</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-9,42; 6,03</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 11,42</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,27</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-34.02199688586701</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-20.68188808345412</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
+      <c r="K5" s="6" t="inlineStr"/>
+      <c r="L5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>36.74100628021871</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>26.5478574902908</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>30.8802840014018</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>33.897793975502</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+      <c r="K6" s="6" t="inlineStr"/>
+      <c r="L6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,6</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,47</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,79</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,91</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-20,3%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-39,47%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-78,97%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-44,93%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-7,07; 3,79</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,28; 1,86</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,84; 0,22</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,49; 1,79</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-62,41; 82,22</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-77,81; 65,11</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>3.806357662850759</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.819441125437932</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-2.637291261172316</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.6692974246395703</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.2549341722122702</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.2324214074583121</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.7096302987297678</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.1975964739605289</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,17</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,29</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,39</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>12,64%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>90,09%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-8.168818658428515</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-12.44846252644172</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-7.338353122857767</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-4.848674347077358</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="6" t="n">
+        <v>-0.4296753249814065</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.735972400016448</v>
+      </c>
+      <c r="J8" s="6" t="inlineStr"/>
+      <c r="K8" s="6" t="inlineStr"/>
+      <c r="L8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,29; 7,4</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,05; 7,33</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,57; 5,54</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,59; 5,78</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-56,86; 222,36</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-67,55; 1244,35</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>17.35717515075214</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.776221973057329</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.9708241129286165</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>4.946845577058316</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="6" t="n">
+        <v>1.883013313613602</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.9563292185430464</v>
+      </c>
+      <c r="J9" s="6" t="inlineStr"/>
+      <c r="K9" s="6" t="inlineStr"/>
+      <c r="L9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +839,221 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.209587008750787</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.721530470752586</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.325249474271638</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>3.605121647448232</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.1240664937802736</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>1.141096019128057</v>
+      </c>
+      <c r="J10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.755366358992635</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.107083527877549</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.8588461317316918</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.983852912902938</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.6051557887603208</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.6617512017982708</v>
+      </c>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.30824961416924</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>12.08225241948259</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>7.765357931050995</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>9.268725990270701</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>1.821047442090872</v>
+      </c>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,49</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-4,06%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-10,68%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>46,86%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>85,64%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,96; 4,03</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,38; 2,97</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,07; 2,11</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-0,68; 2,58</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-43,86; 87,32</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-57,52; 115,13</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-52,21; 741,65</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.519749499636946</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.4326429139189486</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.247811324947719</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.222427820560561</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1187234690125842</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.05542466660371768</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.6805047758155094</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>1.32515200831493</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.03034960561472</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.866073278653942</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.838323787653597</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.5078184955521967</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>-0.3663557907570975</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.4917883385246236</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.7331740182739401</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.4682667665118188</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>8.493378253899664</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.277360842647959</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.852730603741245</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.214830847279948</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>0.8680073811356063</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.202591984754368</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>5.96981951458197</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>8.989862500508414</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
